--- a/codingtest_review_table_DH.xlsx
+++ b/codingtest_review_table_DH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\CodingTestStudy_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\08 repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FB5DEF-1424-4BAF-8EC4-78A062068C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5885E956-948E-4F0F-9F0A-71AEE55E1567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39165" yWindow="3255" windowWidth="28800" windowHeight="15345" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="57">
   <si>
     <t>플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,14 @@
   </si>
   <si>
     <t>촌수계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇청소기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수 삼각형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +770,7 @@
   <dimension ref="A2:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -871,7 +879,7 @@
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P15" si="1">COUNTIF($E$3:$E$1048576, $O4)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -961,7 +969,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -1458,10 +1466,18 @@
       <c r="B25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="5">
+        <v>14503</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6">
+        <v>45422</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1472,10 +1488,18 @@
       <c r="B26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="C26" s="5">
+        <v>1932</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="6">
+        <v>45423</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>

--- a/codingtest_review_table_DH.xlsx
+++ b/codingtest_review_table_DH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\08 repository\CodingTestStudy_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5885E956-948E-4F0F-9F0A-71AEE55E1567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2A89F-DEA7-46F6-A82B-7B28B7FF4D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="39075" yWindow="2205" windowWidth="28800" windowHeight="15345" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="61">
   <si>
     <t>플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,20 @@
   <si>
     <t>정수 삼각형</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 합체 놀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙</t>
+  </si>
+  <si>
+    <t>외계인의 기타 연주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택</t>
   </si>
 </sst>
 </file>
@@ -769,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311C3EF0-06F6-446E-AA2A-F9EE37608F85}">
   <dimension ref="A2:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,7 +792,7 @@
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="14" style="7" customWidth="1"/>
     <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="7"/>
     <col min="6" max="11" width="11.625" style="7" customWidth="1"/>
     <col min="12" max="12" width="9" style="8"/>
@@ -1029,7 +1043,7 @@
       </c>
       <c r="P9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
@@ -1135,7 +1149,7 @@
       </c>
       <c r="P12" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
@@ -1510,10 +1524,18 @@
       <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="C27" s="5">
+        <v>15903</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="6">
+        <v>45425</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1524,10 +1546,18 @@
       <c r="B28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="C28" s="5">
+        <v>2841</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="6">
+        <v>45426</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>

--- a/codingtest_review_table_DH.xlsx
+++ b/codingtest_review_table_DH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\CodingTestStudy_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\08 repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2A89F-DEA7-46F6-A82B-7B28B7FF4D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96283B2F-C02D-451D-B6AD-DDBD580498DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39075" yWindow="2205" windowWidth="28800" windowHeight="15345" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="7200" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
   <si>
     <t>플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>스택</t>
+  </si>
+  <si>
+    <t>LCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -783,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311C3EF0-06F6-446E-AA2A-F9EE37608F85}">
   <dimension ref="A2:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -983,7 +987,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -1568,10 +1572,18 @@
       <c r="B29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="C29" s="5">
+        <v>9251</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="6">
+        <v>45428</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>

--- a/codingtest_review_table_DH.xlsx
+++ b/codingtest_review_table_DH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T\08 repository\CodingTestStudy_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96283B2F-C02D-451D-B6AD-DDBD580498DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35930789-FABB-4F3C-9459-50A4FA4157A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="5895" yWindow="3000" windowWidth="28800" windowHeight="15345" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="65">
   <si>
     <t>플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>LCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 배낭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스티커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A와 B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311C3EF0-06F6-446E-AA2A-F9EE37608F85}">
   <dimension ref="A2:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -987,7 +999,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -1017,7 +1029,7 @@
       </c>
       <c r="P8" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -1518,7 +1530,9 @@
       <c r="F26" s="6">
         <v>45423</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="6">
+        <v>45433</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -1584,7 +1598,9 @@
       <c r="F29" s="6">
         <v>45428</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="6">
+        <v>45433</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -1594,10 +1610,18 @@
       <c r="B30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="C30" s="5">
+        <v>12865</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="6">
+        <v>45430</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1608,10 +1632,18 @@
       <c r="B31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="C31" s="5">
+        <v>9465</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="6">
+        <v>45432</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1622,10 +1654,18 @@
       <c r="B32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="C32" s="5">
+        <v>12904</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="6">
+        <v>45433</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>

--- a/codingtest_review_table_DH.xlsx
+++ b/codingtest_review_table_DH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35930789-FABB-4F3C-9459-50A4FA4157A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186761CC-E001-4521-B98A-4871D7770F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="3000" windowWidth="28800" windowHeight="15345" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="74">
   <si>
     <t>플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,42 @@
   </si>
   <si>
     <t>A와 B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톱니바퀴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2xn 타일링 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위 굴리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미세먼지 안녕!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케빈 베이컨의 6단계 법칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +836,7 @@
   <dimension ref="A2:R202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -909,7 +945,7 @@
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P15" si="1">COUNTIF($E$3:$E$1048576, $O4)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -969,7 +1005,7 @@
       </c>
       <c r="P6" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -999,7 +1035,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -1165,7 +1201,7 @@
       </c>
       <c r="P12" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
@@ -1676,10 +1712,18 @@
       <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="C33" s="5">
+        <v>2458</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="6">
+        <v>45434</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1690,10 +1734,18 @@
       <c r="B34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="C34" s="5">
+        <v>14891</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="6">
+        <v>45463</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -1704,10 +1756,18 @@
       <c r="B35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="C35" s="5">
+        <v>1374</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="6">
+        <v>45474</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1715,11 +1775,21 @@
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>11727</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="6">
+        <v>45475</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1727,11 +1797,21 @@
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="5">
+        <v>14501</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="6">
+        <v>45476</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1739,11 +1819,21 @@
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5">
+        <v>14499</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -1751,11 +1841,21 @@
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5">
+        <v>17144</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -1763,11 +1863,21 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1389</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>

--- a/codingtest_review_table_DH.xlsx
+++ b/codingtest_review_table_DH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\CodingTestStudy_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186761CC-E001-4521-B98A-4871D7770F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE6E25F-D88E-45DE-AE3D-EF249AAC0CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
+    <workbookView xWindow="19125" yWindow="0" windowWidth="19380" windowHeight="20985" xr2:uid="{092B7EFB-034B-4CAF-8C4F-C65105938468}"/>
   </bookViews>
   <sheets>
     <sheet name="복습테이블" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>플랫폼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,76 @@
   </si>
   <si>
     <t>케빈 베이컨의 6단계 법칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 긴 증가하는 부분 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 구매하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이웃한 칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붕대 감기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스도쿠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨베이어 벨트 위의 로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+  </si>
+  <si>
+    <t>안정적인 문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 많이 받은 선물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,21 +905,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311C3EF0-06F6-446E-AA2A-F9EE37608F85}">
   <dimension ref="A2:R202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="14" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="17.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="7"/>
     <col min="6" max="11" width="11.625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9" style="8"/>
-    <col min="13" max="13" width="13" style="8" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.625" style="8" customWidth="1"/>
     <col min="16" max="16" width="12.625" style="8" customWidth="1"/>
     <col min="17" max="18" width="9" style="8"/>
@@ -944,8 +1014,8 @@
         <v>구현</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" ref="P4:P15" si="1">COUNTIF($E$3:$E$1048576, $O4)</f>
-        <v>19</v>
+        <f t="shared" ref="P4:P16" si="1">COUNTIF($E$3:$E$1048576, $O4)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -1005,7 +1075,7 @@
       </c>
       <c r="P6" s="3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -1035,7 +1105,7 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -1065,7 +1135,7 @@
       </c>
       <c r="P8" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -1095,7 +1165,7 @@
       </c>
       <c r="P9" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
@@ -1269,7 +1339,7 @@
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -1331,6 +1401,13 @@
       <c r="N16" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="O16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
@@ -1483,6 +1560,9 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
+      <c r="N22" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
@@ -1831,8 +1911,8 @@
       <c r="E38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>71</v>
+      <c r="F38" s="6">
+        <v>45477</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -1853,8 +1933,8 @@
       <c r="E39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>71</v>
+      <c r="F39" s="6">
+        <v>45478</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -1875,8 +1955,8 @@
       <c r="E40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>71</v>
+      <c r="F40" s="6">
+        <v>45479</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -1885,11 +1965,21 @@
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>11403</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="6">
+        <v>45481</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -1897,11 +1987,21 @@
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5">
+        <v>11053</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="6">
+        <v>45482</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -1909,11 +2009,21 @@
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5">
+        <v>11052</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="6">
+        <v>45484</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -1921,11 +2031,21 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>14719</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="6">
+        <v>45485</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -1933,11 +2053,21 @@
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2636</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="6">
+        <v>45490</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -1945,11 +2075,21 @@
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="6">
+        <v>45491</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -1957,11 +2097,21 @@
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="6">
+        <v>45491</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -1969,11 +2119,21 @@
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="6">
+        <v>45491</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -1981,11 +2141,21 @@
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2239</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="6">
+        <v>45495</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -1993,11 +2163,21 @@
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5">
+        <v>20055</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -2005,11 +2185,21 @@
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2212</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -2017,11 +2207,21 @@
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2002</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -2029,11 +2229,21 @@
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="B53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4990</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -2041,11 +2251,19 @@
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -3836,11 +4054,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E202" xr:uid="{BB2CE533-B93D-4CC2-9A5E-6425EE831AD0}">
-      <formula1>$N$10:$N$21</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B202" xr:uid="{7F92B348-6E15-47FD-B08E-6AC47AD3A0DA}">
       <formula1>$M$10:$M$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E202" xr:uid="{213ADD1C-F921-4F5B-BA0D-97677DF9EB61}">
+      <formula1>$N$10:$N$22</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
